--- a/SubRES_TMPL/SubRes_BioRefineries.xlsx
+++ b/SubRES_TMPL/SubRes_BioRefineries.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC1E9A-351D-413B-BE1F-246332CB7154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7032D3-CF6F-4DF6-BFA4-B5946D848840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUP_BioRefineries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Euro_GBP">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -659,7 +656,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -882,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3119,6 +3116,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
     <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
@@ -3297,12 +3300,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF2A4F12-3B07-4959-8935-8642D5174C5A}">
   <ds:schemaRefs>
@@ -3312,6 +3309,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18CF5E1-8050-4E4C-B498-87D94C523418}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD59BF8C-6907-4EAF-ABDC-6D2FDB97568F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3328,13 +3334,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18CF5E1-8050-4E4C-B498-87D94C523418}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRes_BioRefineries.xlsx
+++ b/SubRES_TMPL/SubRes_BioRefineries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7032D3-CF6F-4DF6-BFA4-B5946D848840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9344071-88C7-410B-B8AA-A75112CE7CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUP_BioRefineries" sheetId="1" r:id="rId1"/>
@@ -1267,23 +1267,23 @@
   <dimension ref="B2:AJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="15"/>
-    <col min="2" max="2" width="23.59765625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="9.1328125" style="15"/>
-    <col min="27" max="27" width="10.86328125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="14.86328125" style="15" customWidth="1"/>
-    <col min="29" max="29" width="45.73046875" style="15" customWidth="1"/>
-    <col min="30" max="16384" width="9.1328125" style="15"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="23.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="9.140625" style="15"/>
+    <col min="27" max="27" width="10.85546875" style="15" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="15" customWidth="1"/>
+    <col min="29" max="29" width="45.7109375" style="15" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:36" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="2:36" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:36" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:36" s="2" customFormat="1" ht="52.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:36" s="2" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="str">
         <f>AB5</f>
         <v>SBIORETH01</v>
@@ -1482,7 +1482,7 @@
         <v>95</v>
       </c>
       <c r="F5" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G5" s="2">
         <v>20</v>
@@ -1537,7 +1537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
         <f t="shared" ref="B6:C19" si="0">AB6</f>
         <v>SBIORETH02</v>
@@ -1553,7 +1553,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G6" s="2">
         <v>20</v>
@@ -1598,7 +1598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORETH03</v>
@@ -1614,7 +1614,7 @@
         <v>96</v>
       </c>
       <c r="F7" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="2">
         <v>20</v>
@@ -1659,7 +1659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST01</v>
@@ -1675,7 +1675,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="2">
         <v>20</v>
@@ -1722,7 +1722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST02</v>
@@ -1738,7 +1738,7 @@
         <v>98</v>
       </c>
       <c r="F9" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G9" s="2">
         <v>20</v>
@@ -1782,7 +1782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST03</v>
@@ -1798,7 +1798,7 @@
         <v>98</v>
       </c>
       <c r="F10" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
@@ -1846,7 +1846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST04</v>
@@ -1862,7 +1862,7 @@
         <v>97</v>
       </c>
       <c r="F11" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
@@ -1910,7 +1910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORDST05</v>
@@ -1926,7 +1926,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G12" s="2">
         <v>20</v>
@@ -1974,7 +1974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS01</v>
@@ -1990,7 +1990,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="2">
         <v>20</v>
@@ -2025,7 +2025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS02</v>
@@ -2041,7 +2041,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G14" s="2">
         <v>20</v>
@@ -2079,7 +2079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS03</v>
@@ -2095,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G15" s="2">
         <v>20</v>
@@ -2133,7 +2133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:36" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:36" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS04</v>
@@ -2149,7 +2149,7 @@
         <v>100</v>
       </c>
       <c r="F16" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G16" s="2">
         <v>20</v>
@@ -2188,7 +2188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS05</v>
@@ -2204,7 +2204,7 @@
         <v>99</v>
       </c>
       <c r="F17" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G17" s="2">
         <v>20</v>
@@ -2240,7 +2240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBIORGAS06</v>
@@ -2256,7 +2256,7 @@
         <v>99</v>
       </c>
       <c r="F18" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="2">
         <v>20</v>
@@ -2292,7 +2292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SBWOO2WPE</v>
@@ -2308,7 +2308,7 @@
         <v>113</v>
       </c>
       <c r="F19" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G19" s="2">
         <v>20</v>
@@ -2329,8 +2329,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="str">
         <f>AB21</f>
         <v>SBIORDST06</v>
@@ -2352,13 +2352,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="str">
         <f>AB23</f>
         <v>SWtE</v>
       </c>
     </row>
-    <row r="23" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="AB23" s="2" t="s">
         <v>61</v>
       </c>
@@ -2366,10 +2366,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="28" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T28" s="2" t="s">
         <v>71</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>230.230769230769</v>
       </c>
     </row>
-    <row r="29" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T29" s="2" t="s">
         <v>72</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>611.11111111111097</v>
       </c>
     </row>
-    <row r="30" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T30" s="2" t="s">
         <v>73</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>944.444444444444</v>
       </c>
     </row>
-    <row r="31" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T31" s="2" t="s">
         <v>74</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>644.444444444444</v>
       </c>
     </row>
-    <row r="32" spans="2:31" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:31" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T32" s="2" t="s">
         <v>75</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>555.555555555556</v>
       </c>
     </row>
-    <row r="33" spans="20:35" s="2" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
+    <row r="33" spans="20:35" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="T33" s="2" t="s">
         <v>76</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>555.555555555556</v>
       </c>
     </row>
-    <row r="34" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T34" s="15" t="s">
         <v>77</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>570.17897913322599</v>
       </c>
     </row>
-    <row r="35" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="35" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T35" s="15" t="s">
         <v>78</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="36" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T36" s="15" t="s">
         <v>79</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>421.96853932584298</v>
       </c>
     </row>
-    <row r="37" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T37" s="15" t="s">
         <v>80</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T38" s="15" t="s">
         <v>81</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>143.72975871313699</v>
       </c>
     </row>
-    <row r="39" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T39" s="15" t="s">
         <v>82</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>2777.7777777777801</v>
       </c>
     </row>
-    <row r="40" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T40" s="15" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>1391.9202722904799</v>
       </c>
     </row>
-    <row r="41" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T41" s="15" t="s">
         <v>84</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>2071.13353846154</v>
       </c>
     </row>
-    <row r="42" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="42" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T42" s="15" t="s">
         <v>85</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>1704.1264024060099</v>
       </c>
     </row>
-    <row r="43" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="43" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T43" s="15" t="s">
         <v>86</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="44" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T44" s="15" t="s">
         <v>87</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>28.5388127853881</v>
       </c>
     </row>
-    <row r="45" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="45" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T45" s="15" t="s">
         <v>88</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>16.806189751395198</v>
       </c>
     </row>
-    <row r="46" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="46" spans="20:35" x14ac:dyDescent="0.25">
       <c r="T46" s="15" t="s">
         <v>89</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1391.9202722904799</v>
       </c>
     </row>
-    <row r="48" spans="20:35" x14ac:dyDescent="0.45">
+    <row r="48" spans="20:35" x14ac:dyDescent="0.25">
       <c r="V48" s="15" t="s">
         <v>68</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S49" s="15" t="s">
         <v>69</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="50" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S50" s="15" t="s">
         <v>71</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>14.942538461538501</v>
       </c>
     </row>
-    <row r="51" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="51" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S51" s="15" t="s">
         <v>72</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>12.2222222222222</v>
       </c>
     </row>
-    <row r="52" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S52" s="15" t="s">
         <v>73</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>18.8888888888889</v>
       </c>
     </row>
-    <row r="53" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S53" s="15" t="s">
         <v>74</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>12.8888888888889</v>
       </c>
     </row>
-    <row r="54" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="54" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S54" s="15" t="s">
         <v>75</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>11.1111111111111</v>
       </c>
     </row>
-    <row r="55" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="55" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S55" s="15" t="s">
         <v>76</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>11.1111111111111</v>
       </c>
     </row>
-    <row r="56" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="56" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S56" s="15" t="s">
         <v>77</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>93.661919999999995</v>
       </c>
     </row>
-    <row r="57" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S57" s="15" t="s">
         <v>78</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="58" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="58" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S58" s="15" t="s">
         <v>79</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>82.308959999999999</v>
       </c>
     </row>
-    <row r="59" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="59" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S59" s="15" t="s">
         <v>80</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="60" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S60" s="15" t="s">
         <v>81</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>17.036203753351199</v>
       </c>
     </row>
-    <row r="61" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="61" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S61" s="15" t="s">
         <v>82</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>55.5555555555556</v>
       </c>
     </row>
-    <row r="62" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="62" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S62" s="15" t="s">
         <v>83</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>118.73853211677999</v>
       </c>
     </row>
-    <row r="63" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S63" s="15" t="s">
         <v>84</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>233.53014055624399</v>
       </c>
     </row>
-    <row r="64" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S64" s="15" t="s">
         <v>85</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>145.37144949413499</v>
       </c>
     </row>
-    <row r="65" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="65" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S65" s="15" t="s">
         <v>86</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="66" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S66" s="15" t="s">
         <v>87</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>1.7123287671232901</v>
       </c>
     </row>
-    <row r="67" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="67" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S67" s="15" t="s">
         <v>88</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1.0083713850837099</v>
       </c>
     </row>
-    <row r="68" spans="19:35" x14ac:dyDescent="0.45">
+    <row r="68" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S68" s="15" t="s">
         <v>89</v>
       </c>
@@ -3107,21 +3107,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4935B8855D2CD4A84AB51A7B8A3B83B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6046aa80c6137ea7cd300941e6de6139">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="795b6ce3-4d29-4fa5-96ed-ea1b36830f13" xmlns:ns3="424ab569-3a9e-4e02-994b-fd1ed8ea43ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8866ff8f472ea66287faba2f38092fc5" ns2:_="" ns3:_="">
     <xsd:import namespace="795b6ce3-4d29-4fa5-96ed-ea1b36830f13"/>
@@ -3300,24 +3285,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF2A4F12-3B07-4959-8935-8642D5174C5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18CF5E1-8050-4E4C-B498-87D94C523418}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD59BF8C-6907-4EAF-ABDC-6D2FDB97568F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3334,4 +3317,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A18CF5E1-8050-4E4C-B498-87D94C523418}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF2A4F12-3B07-4959-8935-8642D5174C5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>